--- a/Data/Processed/Angiosperms/missing_powo_ipni/Marantaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Marantaceae.xlsx
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8880,7 +8880,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -11014,7 +11014,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -12730,7 +12730,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -13522,7 +13522,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20221,7 +20221,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -20804,7 +20804,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -21002,7 +21002,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26645,7 +26645,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
@@ -26655,7 +26655,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Mag. 125: t. 7674. 1899 </t>
+          <t>Bot. Mag. 125: t. 7674. 1899</t>
         </is>
       </c>
       <c r="J459" t="b">
@@ -26723,7 +26723,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -26733,7 +26733,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) IV. 48(Heft 11): 115. 1902 [8 Jul 1902] </t>
+          <t>Pflanzenr. (Engler) IV. 48(Heft 11): 115. 1902 [8 Jul 1902]</t>
         </is>
       </c>
       <c r="J460" t="b">
@@ -26801,7 +26801,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
@@ -26811,7 +26811,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trans. Linn. Soc. London, Bot. ser. 2, 4: 485. 1895 </t>
+          <t>Trans. Linn. Soc. London, Bot. ser. 2, 4: 485. 1895</t>
         </is>
       </c>
       <c r="J461" t="b">
@@ -26879,7 +26879,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
@@ -26889,7 +26889,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retail List [Bull] 110: 7. 1875 </t>
+          <t>Retail List [Bull] 110: 7. 1875</t>
         </is>
       </c>
       <c r="J462" t="b">
@@ -26957,7 +26957,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
@@ -26967,7 +26967,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nordic J. Bot. 6: 744, fig. 1986 </t>
+          <t>Nordic J. Bot. 6: 744, fig. 1986</t>
         </is>
       </c>
       <c r="J463" t="b">
@@ -27035,7 +27035,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
@@ -27045,7 +27045,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cat. New Beautiful Rare Pl. [W. Bull] 1880: 6, t. 12. [1880] </t>
+          <t>Cat. New Beautiful Rare Pl. [W. Bull] 1880: 6, t. 12. [1880]</t>
         </is>
       </c>
       <c r="J464" t="b">
@@ -27110,7 +27110,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
@@ -27120,7 +27120,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sander &amp; Co.'s Cat. 1894 9. 1894 </t>
+          <t>Sander &amp; Co.'s Cat. 1894 9. 1894</t>
         </is>
       </c>
       <c r="J465" t="b">
@@ -27188,7 +27188,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
@@ -27198,7 +27198,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) 4, Fam. 48: 142. 1902 </t>
+          <t>Pflanzenr. (Engler) 4, Fam. 48: 142. 1902</t>
         </is>
       </c>
       <c r="J466" t="b">
@@ -27266,7 +27266,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hort. Brit. [Sweet], ed. 3. 658. 1839 </t>
+          <t>Hort. Brit. [Sweet], ed. 3. 658. 1839</t>
         </is>
       </c>
       <c r="J467" t="b">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -27354,7 +27354,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hort. Brit. [Sweet], ed. 3. 658. 1839 </t>
+          <t>Hort. Brit. [Sweet], ed. 3. 658. 1839</t>
         </is>
       </c>
       <c r="J468" t="b">
@@ -27422,7 +27422,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
@@ -27432,7 +27432,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) 4, Fam. 48: 173. 1902 </t>
+          <t>Pflanzenr. (Engler) 4, Fam. 48: 173. 1902</t>
         </is>
       </c>
       <c r="J469" t="b">
